--- a/modules_schedules/Y4_B2526_General_&_special_internal_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_special_internal_1_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,12 +535,12 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>06/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -570,12 +570,12 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>05/10/2025</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -605,12 +605,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>08/10/2025</t>
+          <t>06/10/2025</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -640,12 +640,12 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>11/10/2025</t>
+          <t>07/10/2025</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>12/10/2025</t>
+          <t>08/10/2025</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>13/10/2025</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>14/10/2025</t>
+          <t>12/10/2025</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>15/10/2025</t>
+          <t>13/10/2025</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>chest</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>14/10/2025</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>chest</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>15/10/2025</t>
         </is>
       </c>
       <c r="F11" s="8" t="inlineStr">
@@ -885,12 +885,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>21/10/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F13" s="8" t="inlineStr">
@@ -955,12 +955,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>21/10/2025</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
@@ -990,12 +990,12 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F15" s="8" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -1060,12 +1060,12 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>28/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F17" s="8" t="inlineStr">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>29/10/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>28/10/2025</t>
         </is>
       </c>
       <c r="F19" s="8" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>chest</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>02/11/2025</t>
+          <t>29/10/2025</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -1195,17 +1195,17 @@
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>chest</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>03/11/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -1230,26 +1230,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>21/09/2025</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -1265,26 +1265,26 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G23" s="9" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -1300,26 +1300,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>23/09/2025</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -1335,26 +1335,26 @@
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>24/09/2025</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G25" s="9" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -1370,26 +1370,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G26" s="5" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -1405,26 +1405,26 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>28/09/2025</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G27" s="9" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -1440,26 +1440,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G28" s="5" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -1475,26 +1475,26 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>dermatology</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>30/09/2025</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G29" s="9" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -1510,26 +1510,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>psychiatry</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>01/10/2025</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G30" s="5" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -1545,26 +1545,26 @@
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>psychiatry</t>
+          <t>clin.patho</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>08/09/2025</t>
+          <t>02/10/2025</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G31" s="9" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -1580,17 +1580,15 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>psychiatry</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>09/09/2025</t>
+          <t>02/11/2025</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -1615,17 +1613,17 @@
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>psychiatry</t>
+          <t>dermatology</t>
         </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>10/09/2025</t>
+          <t>03/11/2025</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -1650,17 +1648,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>psychiatry</t>
+          <t>dermatology</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>11/09/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
@@ -1685,17 +1683,17 @@
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>psychiatry</t>
+          <t>dermatology</t>
         </is>
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>14/09/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -1720,17 +1718,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>psychiatry</t>
+          <t>dermatology</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
@@ -1755,26 +1753,26 @@
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>psychiatry</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>16/09/2025</t>
+          <t>21/09/2025</t>
         </is>
       </c>
       <c r="F37" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G37" s="9" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -1790,26 +1788,26 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>psychiatry</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G38" s="5" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39">
@@ -1825,26 +1823,26 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>psychiatry</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D39" s="6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>18/09/2025</t>
+          <t>23/09/2025</t>
         </is>
       </c>
       <c r="F39" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G39" s="9" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40">
@@ -1860,26 +1858,26 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>24/09/2025</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G40" s="5" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41">
@@ -1895,26 +1893,26 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D41" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="F41" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G41" s="9" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42">
@@ -1930,26 +1928,26 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>28/09/2025</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G42" s="5" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43">
@@ -1965,26 +1963,26 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>29/09/2025</t>
         </is>
       </c>
       <c r="F43" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G43" s="9" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -2000,26 +1998,26 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>20/11/2025</t>
+          <t>30/09/2025</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G44" s="5" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
@@ -2035,26 +2033,26 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E45" s="7" t="inlineStr">
         <is>
-          <t>23/11/2025</t>
+          <t>01/10/2025</t>
         </is>
       </c>
       <c r="F45" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G45" s="9" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46">
@@ -2070,26 +2068,26 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>immuno&amp;hema</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>02/10/2025</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G46" s="5" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47">
@@ -2105,17 +2103,17 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E47" s="7" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="F47" s="8" t="inlineStr">
@@ -2140,17 +2138,17 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>08/09/2025</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
@@ -2175,17 +2173,17 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>tropical</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D49" s="6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>27/11/2025</t>
+          <t>09/09/2025</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
@@ -2205,22 +2203,22 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>cardiology</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>10/09/2025</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
@@ -2240,22 +2238,22 @@
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>cardiology</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>05/10/2025</t>
+          <t>11/09/2025</t>
         </is>
       </c>
       <c r="F51" s="8" t="inlineStr">
@@ -2275,31 +2273,31 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>clin.patho</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>21/09/2025</t>
+          <t>14/09/2025</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G52" s="5" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53">
@@ -2310,31 +2308,31 @@
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>clin.patho</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G53" s="9" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54">
@@ -2345,31 +2343,31 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>clin.patho</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>23/09/2025</t>
+          <t>16/09/2025</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G54" s="5" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55">
@@ -2380,31 +2378,31 @@
       </c>
       <c r="B55" s="6" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>clin.patho</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E55" s="7" t="inlineStr">
         <is>
-          <t>24/09/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="F55" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G55" s="9" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56">
@@ -2415,31 +2413,31 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>clin.patho</t>
+          <t>psychiatry</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>18/09/2025</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G56" s="5" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57">
@@ -2450,31 +2448,29 @@
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>clin.patho</t>
-        </is>
-      </c>
-      <c r="D57" s="6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>28/09/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F57" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G57" s="9" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58">
@@ -2485,31 +2481,31 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>clin.patho</t>
+          <t>tropical</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G58" s="5" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59">
@@ -2520,31 +2516,31 @@
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>clin.patho</t>
+          <t>tropical</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>30/09/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G59" s="9" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60">
@@ -2555,31 +2551,31 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>clin.patho</t>
+          <t>tropical</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G60" s="5" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61">
@@ -2590,31 +2586,31 @@
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>clin.patho</t>
+          <t>tropical</t>
         </is>
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" s="7" t="inlineStr">
         <is>
-          <t>02/10/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F61" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G61" s="9" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62">
@@ -2630,7 +2626,7 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -2640,16 +2636,16 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>21/09/2025</t>
+          <t>20/9/2025</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G62" s="5" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63">
@@ -2665,7 +2661,7 @@
       </c>
       <c r="C63" s="6" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D63" s="6" t="inlineStr">
@@ -2675,16 +2671,16 @@
       </c>
       <c r="E63" s="7" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>21/9/2025</t>
         </is>
       </c>
       <c r="F63" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G63" s="9" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64">
@@ -2700,7 +2696,7 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
@@ -2710,16 +2706,16 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>23/09/2025</t>
+          <t>22/9/2025</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G64" s="5" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65">
@@ -2735,7 +2731,7 @@
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D65" s="6" t="inlineStr">
@@ -2745,16 +2741,16 @@
       </c>
       <c r="E65" s="7" t="inlineStr">
         <is>
-          <t>24/09/2025</t>
+          <t>23/9/2025</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G65" s="9" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66">
@@ -2770,7 +2766,7 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
@@ -2780,16 +2776,16 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>24/9/2025</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G66" s="5" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67">
@@ -2805,7 +2801,7 @@
       </c>
       <c r="C67" s="6" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D67" s="6" t="inlineStr">
@@ -2815,16 +2811,16 @@
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>28/09/2025</t>
+          <t>27/9/2025</t>
         </is>
       </c>
       <c r="F67" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G67" s="9" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68">
@@ -2840,7 +2836,7 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -2850,16 +2846,16 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>28/9/2025</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G68" s="5" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69">
@@ -2875,7 +2871,7 @@
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D69" s="6" t="inlineStr">
@@ -2885,16 +2881,16 @@
       </c>
       <c r="E69" s="7" t="inlineStr">
         <is>
-          <t>30/09/2025</t>
+          <t>29/9/2025</t>
         </is>
       </c>
       <c r="F69" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G69" s="9" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70">
@@ -2910,7 +2906,7 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>immuno&amp;hema</t>
+          <t>cardiology</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -2920,16 +2916,16 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>30/9/2025</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G70" s="5" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71">
@@ -2945,26 +2941,7891 @@
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F83" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="F89" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" s="7" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E93" s="7" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="F93" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F95" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
           <t>immuno&amp;hema</t>
         </is>
       </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E97" s="7" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="F99" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E101" s="7" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="F101" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D103" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E103" s="7" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F103" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D105" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E71" s="7" t="inlineStr">
-        <is>
-          <t>02/10/2025</t>
-        </is>
-      </c>
-      <c r="F71" s="8" t="inlineStr">
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="G71" s="9" t="n">
+      <c r="G105" s="9" t="n">
         <v>240</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="F107" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="F109" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F111" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="F113" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G114" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>26/10/2025</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="F117" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G118" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G120" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G122" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C123" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E125" s="7" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G125" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E127" s="7" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G127" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G129" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>21/9/2025</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>22/9/2025</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G132" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E133" s="7" t="inlineStr">
+        <is>
+          <t>23/9/2025</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G133" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>24/9/2025</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G134" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>25/9/2025</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G135" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>28/9/2025</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
+        <is>
+          <t>29/9/2025</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G137" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>30/9/2025</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G138" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E139" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G139" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G140" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E141" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="F141" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G141" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G142" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C143" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E143" s="7" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="F143" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G143" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G144" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E145" s="7" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F145" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G145" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G146" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C147" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E147" s="7" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="F147" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G147" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G148" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E149" s="7" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="F149" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G149" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G150" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B151" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C151" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E151" s="7" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="F151" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G151" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G152" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E153" s="7" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="F153" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G153" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E155" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="F155" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G155" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E157" s="7" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="F157" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G158" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B159" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C159" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D159" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E159" s="7" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F159" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G159" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G160" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B161" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C161" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D161" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E161" s="7" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="F161" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G161" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G162" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C163" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D163" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E163" s="7" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="F163" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G163" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="F164" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G164" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B165" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C165" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D165" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E165" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="F165" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G165" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="F166" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G166" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B167" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C167" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D167" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E167" s="7" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="F167" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G167" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G168" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B169" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C169" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D169" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E169" s="7" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F169" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G169" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F170" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G170" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B171" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C171" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D171" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E171" s="7" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="F171" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G171" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="F172" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G172" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B173" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C173" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E173" s="7" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="F173" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G173" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="F174" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G174" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C175" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D175" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="7" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F175" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G175" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="F176" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G176" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B177" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C177" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E177" s="7" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="F177" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G177" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="F178" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G178" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B179" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C179" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D179" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E179" s="7" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="F179" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G179" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2025</t>
+        </is>
+      </c>
+      <c r="F180" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G180" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B181" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C181" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D181" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E181" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="F181" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G181" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="F182" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G182" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C183" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D183" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E183" s="7" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="F183" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G183" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G184" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B185" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C185" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D185" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E185" s="7" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F185" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G185" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F186" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G186" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B187" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C187" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D187" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E187" s="7" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="F187" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G187" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="F188" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G188" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B189" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C189" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D189" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E189" s="7" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="F189" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G189" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
+      <c r="F190" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G190" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B191" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C191" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D191" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E191" s="7" t="inlineStr">
+        <is>
+          <t>09/08/2025</t>
+        </is>
+      </c>
+      <c r="F191" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G191" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E192" s="3" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F192" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G192" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B193" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C193" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D193" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E193" s="7" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="F193" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G193" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="F194" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G194" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B195" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C195" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D195" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E195" s="7" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="F195" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G195" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E196" s="3" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F196" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G196" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B197" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C197" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D197" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E197" s="7" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F197" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G197" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G198" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B199" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C199" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D199" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E199" s="7" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="F199" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G199" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="F200" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G200" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B201" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C201" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D201" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E201" s="7" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
+      <c r="F201" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G201" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="F202" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G202" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B203" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C203" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D203" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E203" s="7" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="F203" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G203" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F204" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G204" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B205" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C205" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D205" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E205" s="7" t="inlineStr">
+        <is>
+          <t>26/10/2025</t>
+        </is>
+      </c>
+      <c r="F205" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G205" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="F206" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G206" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B207" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C207" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D207" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E207" s="7" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="F207" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G207" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="F208" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G208" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B209" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C209" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D209" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E209" s="7" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="F209" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G209" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="F210" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G210" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B211" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C211" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D211" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E211" s="7" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="F211" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G211" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="F212" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G212" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B213" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C213" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D213" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E213" s="7" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="F213" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G213" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E214" s="3" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="F214" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G214" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B215" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C215" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D215" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E215" s="7" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="F215" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G215" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
+      <c r="F216" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G216" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B217" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C217" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D217" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E217" s="7" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="F217" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G217" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="F218" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G218" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B219" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C219" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D219" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E219" s="7" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F219" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G219" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="inlineStr">
+        <is>
+          <t>26/10/2025</t>
+        </is>
+      </c>
+      <c r="F220" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G220" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B221" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C221" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D221" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E221" s="7" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="F221" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G221" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="F222" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G222" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B223" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C223" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D223" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E223" s="7" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="F223" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G223" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="F224" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G224" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B225" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C225" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D225" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E225" s="7" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="F225" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G225" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="F226" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G226" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B227" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C227" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D227" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E227" s="7" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="F227" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G227" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="F228" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G228" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B229" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C229" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D229" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E229" s="7" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F229" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G229" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="F230" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G230" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B231" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C231" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D231" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E231" s="7" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="F231" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G231" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="F232" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G232" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B233" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C233" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D233" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E233" s="7" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="F233" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G233" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="F234" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G234" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B235" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C235" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D235" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E235" s="7" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="F235" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G235" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="F236" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G236" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B237" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C237" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D237" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E237" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="F237" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G237" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E238" s="3" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F238" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G238" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B239" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C239" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D239" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E239" s="7" t="inlineStr">
+        <is>
+          <t>18/10/2025</t>
+        </is>
+      </c>
+      <c r="F239" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G239" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E240" s="3" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="F240" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G240" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B241" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C241" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D241" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E241" s="7" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
+      <c r="F241" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G241" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="F242" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G242" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B243" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C243" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D243" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E243" s="7" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="F243" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G243" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="F244" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G244" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B245" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C245" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D245" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E245" s="7" t="inlineStr">
+        <is>
+          <t>26/10/2025</t>
+        </is>
+      </c>
+      <c r="F245" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G245" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="F246" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G246" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B247" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C247" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D247" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E247" s="7" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="F247" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G247" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E248" s="3" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="F248" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G248" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B249" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C249" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D249" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E249" s="7" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="F249" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G249" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E250" s="3" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="F250" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G250" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B251" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C251" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D251" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E251" s="7" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="F251" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G251" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="F252" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G252" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B253" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C253" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D253" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E253" s="7" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="F253" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G253" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F254" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G254" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B255" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C255" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D255" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E255" s="7" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="F255" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G255" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E256" s="3" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="F256" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G256" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B257" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C257" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D257" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E257" s="7" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="F257" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G257" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E258" s="3" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="F258" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G258" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B259" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C259" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D259" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E259" s="7" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="F259" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G259" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E260" s="3" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="F260" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G260" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B261" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C261" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D261" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E261" s="7" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="F261" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G261" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="F262" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G262" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B263" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C263" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D263" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E263" s="7" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F263" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G263" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E264" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="F264" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G264" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B265" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C265" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D265" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E265" s="7" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="F265" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G265" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E266" s="3" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="F266" s="4" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G266" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B267" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C267" s="6" t="inlineStr">
+        <is>
+          <t>clin.patho</t>
+        </is>
+      </c>
+      <c r="D267" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E267" s="7" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="F267" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G267" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E268" s="3" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="F268" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G268" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B269" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C269" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D269" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E269" s="7" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="F269" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G269" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E270" s="3" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="F270" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G270" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B271" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C271" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D271" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E271" s="7" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="F271" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G271" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E272" s="3" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="F272" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G272" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B273" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C273" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D273" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E273" s="7" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="F273" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G273" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E274" s="3" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="F274" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G274" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B275" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C275" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D275" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E275" s="7" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="F275" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G275" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E276" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="F276" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G276" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B277" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C277" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D277" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E277" s="7" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F277" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G277" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E278" s="3" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="F278" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G278" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B279" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C279" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D279" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E279" s="7" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="F279" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G279" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E280" s="3" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="F280" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G280" s="5" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B281" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C281" s="6" t="inlineStr">
+        <is>
+          <t>immuno&amp;hema</t>
+        </is>
+      </c>
+      <c r="D281" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E281" s="7" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="F281" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G281" s="9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E282" s="3" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="F282" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G282" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B283" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C283" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D283" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E283" s="7" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="F283" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G283" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C284" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E284" s="3" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="F284" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G284" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B285" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C285" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D285" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E285" s="7" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="F285" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G285" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C286" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E286" s="3" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="F286" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G286" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B287" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C287" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D287" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E287" s="7" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="F287" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G287" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C288" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E288" s="3" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="F288" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G288" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B289" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C289" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D289" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E289" s="7" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="F289" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G289" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E290" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="F290" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G290" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B291" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C291" s="6" t="inlineStr">
+        <is>
+          <t>psychiatry</t>
+        </is>
+      </c>
+      <c r="D291" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E291" s="7" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F291" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G291" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C292" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E292" s="3" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="F292" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G292" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B293" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C293" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D293" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E293" s="7" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="F293" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G293" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C294" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E294" s="3" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="F294" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G294" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B295" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C295" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D295" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E295" s="7" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="F295" s="8" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G295" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E296" s="3" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="F296" s="4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G296" s="5" t="n">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/modules_schedules/Y4_B2526_General_&_special_internal_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_special_internal_1_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EF0778-033A-48C5-AA7A-0032F9D7ED9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03F083-D1AF-4A0D-9AB2-96670B110ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="90">
   <si>
     <t>Year</t>
   </si>
@@ -262,33 +262,6 @@
     <t>B1B</t>
   </si>
   <si>
-    <t>20/9/2025</t>
-  </si>
-  <si>
-    <t>21/9/2025</t>
-  </si>
-  <si>
-    <t>22/9/2025</t>
-  </si>
-  <si>
-    <t>23/9/2025</t>
-  </si>
-  <si>
-    <t>24/9/2025</t>
-  </si>
-  <si>
-    <t>27/9/2025</t>
-  </si>
-  <si>
-    <t>28/9/2025</t>
-  </si>
-  <si>
-    <t>29/9/2025</t>
-  </si>
-  <si>
-    <t>30/9/2025</t>
-  </si>
-  <si>
     <t>16/10/2025</t>
   </si>
   <si>
@@ -299,9 +272,6 @@
   </si>
   <si>
     <t>13/09/2025</t>
-  </si>
-  <si>
-    <t>25/9/2025</t>
   </si>
   <si>
     <t>B1D</t>
@@ -710,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254:XFD254"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2001,8 +1971,8 @@
       <c r="D56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>80</v>
+      <c r="E56" s="7">
+        <v>45920</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>12</v>
@@ -2024,8 +1994,8 @@
       <c r="D57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>81</v>
+      <c r="E57" s="3">
+        <v>45921</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>12</v>
@@ -2047,8 +2017,8 @@
       <c r="D58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>82</v>
+      <c r="E58" s="7">
+        <v>45922</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>12</v>
@@ -2070,8 +2040,8 @@
       <c r="D59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>83</v>
+      <c r="E59" s="3">
+        <v>45923</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>12</v>
@@ -2093,8 +2063,8 @@
       <c r="D60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>84</v>
+      <c r="E60" s="7">
+        <v>45924</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>12</v>
@@ -2116,8 +2086,8 @@
       <c r="D61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>85</v>
+      <c r="E61" s="3">
+        <v>45927</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>12</v>
@@ -2139,8 +2109,8 @@
       <c r="D62" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>86</v>
+      <c r="E62" s="7">
+        <v>45928</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>12</v>
@@ -2162,8 +2132,8 @@
       <c r="D63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>87</v>
+      <c r="E63" s="3">
+        <v>45929</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>12</v>
@@ -2185,8 +2155,8 @@
       <c r="D64" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>88</v>
+      <c r="E64" s="7">
+        <v>45930</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>12</v>
@@ -2416,7 +2386,7 @@
         <v>29</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>12</v>
@@ -3212,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>9</v>
@@ -3221,7 +3191,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>12</v>
@@ -3235,7 +3205,7 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3258,7 +3228,7 @@
         <v>7</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>9</v>
@@ -3281,7 +3251,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3304,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>9</v>
@@ -3327,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3336,7 +3306,7 @@
         <v>21</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>12</v>
@@ -3350,7 +3320,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>9</v>
@@ -3373,7 +3343,7 @@
         <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3396,7 +3366,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>9</v>
@@ -3419,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3442,7 +3412,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>31</v>
@@ -3450,8 +3420,8 @@
       <c r="D119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>81</v>
+      <c r="E119" s="7">
+        <v>45921</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>12</v>
@@ -3465,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>31</v>
@@ -3473,8 +3443,8 @@
       <c r="D120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>82</v>
+      <c r="E120" s="3">
+        <v>45922</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>12</v>
@@ -3488,7 +3458,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>31</v>
@@ -3496,8 +3466,8 @@
       <c r="D121" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="7" t="s">
-        <v>83</v>
+      <c r="E121" s="7">
+        <v>45923</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>12</v>
@@ -3511,7 +3481,7 @@
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>31</v>
@@ -3519,8 +3489,8 @@
       <c r="D122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>84</v>
+      <c r="E122" s="3">
+        <v>45924</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>12</v>
@@ -3534,7 +3504,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>31</v>
@@ -3542,8 +3512,8 @@
       <c r="D123" s="6">
         <v>5</v>
       </c>
-      <c r="E123" s="7" t="s">
-        <v>93</v>
+      <c r="E123" s="7">
+        <v>45925</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>12</v>
@@ -3557,7 +3527,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>31</v>
@@ -3565,8 +3535,8 @@
       <c r="D124" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>86</v>
+      <c r="E124" s="3">
+        <v>45928</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>12</v>
@@ -3580,7 +3550,7 @@
         <v>7</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>31</v>
@@ -3588,8 +3558,8 @@
       <c r="D125" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E125" s="7" t="s">
-        <v>87</v>
+      <c r="E125" s="7">
+        <v>45929</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>12</v>
@@ -3603,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>31</v>
@@ -3611,8 +3581,8 @@
       <c r="D126" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>88</v>
+      <c r="E126" s="3">
+        <v>45930</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>12</v>
@@ -3626,7 +3596,7 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>31</v>
@@ -3649,7 +3619,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>31</v>
@@ -3672,7 +3642,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>42</v>
@@ -3695,7 +3665,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>42</v>
@@ -3718,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>42</v>
@@ -3741,7 +3711,7 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>42</v>
@@ -3764,7 +3734,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>42</v>
@@ -3787,7 +3757,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>49</v>
@@ -3810,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>49</v>
@@ -3833,7 +3803,7 @@
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>49</v>
@@ -3856,7 +3826,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>49</v>
@@ -3879,7 +3849,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>55</v>
@@ -3902,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>55</v>
@@ -3925,7 +3895,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>55</v>
@@ -3948,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>55</v>
@@ -3971,7 +3941,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>55</v>
@@ -3994,7 +3964,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>55</v>
@@ -4017,7 +3987,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>55</v>
@@ -4040,7 +4010,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>55</v>
@@ -4063,7 +4033,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>55</v>
@@ -4086,7 +4056,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>55</v>
@@ -4109,7 +4079,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>62</v>
@@ -4132,7 +4102,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>62</v>
@@ -4155,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>62</v>
@@ -4178,7 +4148,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>62</v>
@@ -4201,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>62</v>
@@ -4224,7 +4194,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>62</v>
@@ -4247,7 +4217,7 @@
         <v>7</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>62</v>
@@ -4270,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>62</v>
@@ -4293,7 +4263,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>62</v>
@@ -4316,7 +4286,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>73</v>
@@ -4339,7 +4309,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>73</v>
@@ -4362,7 +4332,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>73</v>
@@ -4385,7 +4355,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>73</v>
@@ -4408,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>73</v>
@@ -4417,7 +4387,7 @@
         <v>19</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>12</v>
@@ -4431,7 +4401,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>9</v>
@@ -4440,7 +4410,7 @@
         <v>10</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>12</v>
@@ -4454,7 +4424,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4477,7 +4447,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>9</v>
@@ -4500,7 +4470,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4523,7 +4493,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>9</v>
@@ -4546,7 +4516,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4555,7 +4525,7 @@
         <v>21</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>12</v>
@@ -4569,7 +4539,7 @@
         <v>7</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>9</v>
@@ -4592,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4615,7 +4585,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>9</v>
@@ -4638,7 +4608,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4661,7 +4631,7 @@
         <v>7</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>31</v>
@@ -4684,7 +4654,7 @@
         <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>31</v>
@@ -4707,7 +4677,7 @@
         <v>7</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>31</v>
@@ -4730,7 +4700,7 @@
         <v>7</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>31</v>
@@ -4753,7 +4723,7 @@
         <v>7</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>31</v>
@@ -4776,7 +4746,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>31</v>
@@ -4799,7 +4769,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>31</v>
@@ -4822,7 +4792,7 @@
         <v>7</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>31</v>
@@ -4845,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>31</v>
@@ -4868,7 +4838,7 @@
         <v>7</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>31</v>
@@ -4891,7 +4861,7 @@
         <v>7</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>42</v>
@@ -4914,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>42</v>
@@ -4937,7 +4907,7 @@
         <v>7</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>42</v>
@@ -4960,7 +4930,7 @@
         <v>7</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>42</v>
@@ -4983,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>42</v>
@@ -5006,7 +4976,7 @@
         <v>7</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>49</v>
@@ -5029,7 +4999,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>49</v>
@@ -5052,7 +5022,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>49</v>
@@ -5075,7 +5045,7 @@
         <v>7</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>49</v>
@@ -5098,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>49</v>
@@ -5121,7 +5091,7 @@
         <v>7</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>55</v>
@@ -5144,7 +5114,7 @@
         <v>7</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>55</v>
@@ -5167,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>55</v>
@@ -5190,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>55</v>
@@ -5213,7 +5183,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>55</v>
@@ -5236,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>55</v>
@@ -5259,7 +5229,7 @@
         <v>7</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>55</v>
@@ -5282,7 +5252,7 @@
         <v>7</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>55</v>
@@ -5305,7 +5275,7 @@
         <v>7</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>55</v>
@@ -5328,7 +5298,7 @@
         <v>7</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>55</v>
@@ -5351,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>62</v>
@@ -5374,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>62</v>
@@ -5397,7 +5367,7 @@
         <v>7</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>62</v>
@@ -5420,7 +5390,7 @@
         <v>7</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>62</v>
@@ -5443,7 +5413,7 @@
         <v>7</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>62</v>
@@ -5466,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>62</v>
@@ -5489,7 +5459,7 @@
         <v>7</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>62</v>
@@ -5512,7 +5482,7 @@
         <v>7</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>62</v>
@@ -5521,7 +5491,7 @@
         <v>29</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F209" s="8" t="s">
         <v>12</v>
@@ -5535,7 +5505,7 @@
         <v>7</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>73</v>
@@ -5558,7 +5528,7 @@
         <v>7</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>73</v>
@@ -5581,7 +5551,7 @@
         <v>7</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>73</v>
@@ -5604,7 +5574,7 @@
         <v>7</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>73</v>
@@ -5627,7 +5597,7 @@
         <v>7</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>73</v>
@@ -5650,7 +5620,7 @@
         <v>7</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>9</v>
@@ -5659,7 +5629,7 @@
         <v>10</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F215" s="8" t="s">
         <v>12</v>
@@ -5673,7 +5643,7 @@
         <v>7</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5696,7 +5666,7 @@
         <v>7</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>9</v>
@@ -5719,7 +5689,7 @@
         <v>7</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5742,7 +5712,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>9</v>
@@ -5765,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5774,7 +5744,7 @@
         <v>21</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>12</v>
@@ -5788,7 +5758,7 @@
         <v>7</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>9</v>
@@ -5811,7 +5781,7 @@
         <v>7</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5834,7 +5804,7 @@
         <v>7</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>9</v>
@@ -5857,7 +5827,7 @@
         <v>7</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5880,7 +5850,7 @@
         <v>7</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>31</v>
@@ -5903,7 +5873,7 @@
         <v>7</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>31</v>
@@ -5926,7 +5896,7 @@
         <v>7</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>31</v>
@@ -5949,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>31</v>
@@ -5972,7 +5942,7 @@
         <v>7</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>31</v>
@@ -5995,7 +5965,7 @@
         <v>7</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>31</v>
@@ -6018,7 +5988,7 @@
         <v>7</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>31</v>
@@ -6041,7 +6011,7 @@
         <v>7</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>31</v>
@@ -6064,7 +6034,7 @@
         <v>7</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>31</v>
@@ -6087,7 +6057,7 @@
         <v>7</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>31</v>
@@ -6110,7 +6080,7 @@
         <v>7</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>42</v>
@@ -6133,7 +6103,7 @@
         <v>7</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>42</v>
@@ -6156,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>42</v>
@@ -6179,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>42</v>
@@ -6202,7 +6172,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>42</v>
@@ -6211,7 +6181,7 @@
         <v>5</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F239" s="8" t="s">
         <v>44</v>
@@ -6225,7 +6195,7 @@
         <v>7</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>49</v>
@@ -6248,7 +6218,7 @@
         <v>7</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>49</v>
@@ -6271,7 +6241,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>49</v>
@@ -6294,7 +6264,7 @@
         <v>7</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>49</v>
@@ -6317,7 +6287,7 @@
         <v>7</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>49</v>
@@ -6340,7 +6310,7 @@
         <v>7</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>55</v>
@@ -6363,7 +6333,7 @@
         <v>7</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>55</v>
@@ -6386,7 +6356,7 @@
         <v>7</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>55</v>
@@ -6409,7 +6379,7 @@
         <v>7</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>55</v>
@@ -6432,7 +6402,7 @@
         <v>7</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>55</v>
@@ -6455,7 +6425,7 @@
         <v>7</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>55</v>
@@ -6478,7 +6448,7 @@
         <v>7</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>55</v>
@@ -6501,7 +6471,7 @@
         <v>7</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>55</v>
@@ -6524,7 +6494,7 @@
         <v>7</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>55</v>
@@ -6533,7 +6503,7 @@
         <v>29</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F253" s="8" t="s">
         <v>57</v>
@@ -6547,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>62</v>
@@ -6570,7 +6540,7 @@
         <v>7</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>62</v>
@@ -6593,7 +6563,7 @@
         <v>7</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>62</v>
@@ -6616,7 +6586,7 @@
         <v>7</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>62</v>
@@ -6639,7 +6609,7 @@
         <v>7</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>62</v>
@@ -6662,7 +6632,7 @@
         <v>7</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>62</v>
@@ -6685,7 +6655,7 @@
         <v>7</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>62</v>
@@ -6708,7 +6678,7 @@
         <v>7</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>62</v>
@@ -6731,7 +6701,7 @@
         <v>7</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>62</v>
@@ -6754,7 +6724,7 @@
         <v>7</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>73</v>
@@ -6777,7 +6747,7 @@
         <v>7</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>73</v>
@@ -6800,7 +6770,7 @@
         <v>7</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>73</v>
@@ -6823,7 +6793,7 @@
         <v>7</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>73</v>
@@ -6846,7 +6816,7 @@
         <v>7</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>73</v>

--- a/modules_schedules/Y4_B2526_General_&_special_internal_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_special_internal_1_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDE6642-7602-4A02-8598-8382660FBF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0108AE3-6DCD-4260-B97F-8428BB3FD1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="General_&amp;_special_internal_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General_&amp;_special_internal_1'!$C$1:$C$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'General_&amp;_special_internal_1'!$C$1:$C$264</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="90">
   <si>
     <t>Year</t>
   </si>
@@ -703,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="147" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255:XFD256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1672,1212 +1672,1212 @@
       <c r="C42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2">
         <v>1</v>
       </c>
-      <c r="E42" s="6">
-        <v>45907</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="E51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C52" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E52" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6">
+        <v>45920</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45921</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="6">
+        <v>45922</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45923</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="6">
+        <v>45924</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45927</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="6">
+        <v>45928</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45929</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="6">
+        <v>45930</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="F75" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="5">
+        <v>2</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="5">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="2">
+        <v>5</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E82" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="F87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="F88" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="F89" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="F90" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G90" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="F91" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="F92" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="F93" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="6">
-        <v>45920</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="3">
-        <v>45921</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="6">
-        <v>45922</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="3">
-        <v>45923</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="6">
-        <v>45924</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="3">
-        <v>45927</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="6">
-        <v>45928</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="3">
-        <v>45929</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="6">
-        <v>45930</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="5">
-        <v>2</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G77" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" s="2">
-        <v>3</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="5">
-        <v>4</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2">
-        <v>5</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G80" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F86" s="13" t="s">
+      <c r="F94" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G86" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G87" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G88" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G89" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G90" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G91" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G92" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G93" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G94" s="4">
+      <c r="G94" s="7">
         <v>240</v>
       </c>
     </row>
@@ -2889,41 +2889,41 @@
         <v>79</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G95" s="7">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="5" t="s">
+      <c r="A96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="5">
-        <v>1</v>
-      </c>
-      <c r="E96" s="6">
-        <v>45963</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="7">
+      <c r="D96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="4">
         <v>360</v>
       </c>
     </row>
@@ -2938,10 +2938,10 @@
         <v>62</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>12</v>
@@ -2961,10 +2961,10 @@
         <v>62</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>12</v>
@@ -2984,10 +2984,10 @@
         <v>62</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>12</v>
@@ -3007,10 +3007,10 @@
         <v>62</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>12</v>
@@ -3030,10 +3030,10 @@
         <v>62</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>12</v>
@@ -3053,10 +3053,10 @@
         <v>62</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>12</v>
@@ -3076,10 +3076,10 @@
         <v>62</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>12</v>
@@ -3096,13 +3096,13 @@
         <v>79</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>12</v>
@@ -3119,13 +3119,13 @@
         <v>79</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>12</v>
@@ -3144,11 +3144,11 @@
       <c r="C106" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D106" s="2">
-        <v>1</v>
+      <c r="D106" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>12</v>
@@ -3168,10 +3168,10 @@
         <v>73</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>12</v>
@@ -3191,10 +3191,10 @@
         <v>73</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>12</v>
@@ -3208,16 +3208,16 @@
         <v>7</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>12</v>
@@ -3231,16 +3231,16 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>12</v>
@@ -3260,10 +3260,10 @@
         <v>9</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>12</v>
@@ -3283,10 +3283,10 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>12</v>
@@ -3306,10 +3306,10 @@
         <v>9</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>12</v>
@@ -3329,10 +3329,10 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F114" s="13" t="s">
         <v>12</v>
@@ -3352,10 +3352,10 @@
         <v>9</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F115" s="14" t="s">
         <v>12</v>
@@ -3375,10 +3375,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F116" s="13" t="s">
         <v>12</v>
@@ -3398,10 +3398,10 @@
         <v>9</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>12</v>
@@ -3421,10 +3421,10 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>12</v>
@@ -3441,13 +3441,13 @@
         <v>81</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="E119" s="6">
+        <v>45921</v>
       </c>
       <c r="F119" s="14" t="s">
         <v>12</v>
@@ -3464,13 +3464,13 @@
         <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="E120" s="3">
+        <v>45922</v>
       </c>
       <c r="F120" s="13" t="s">
         <v>12</v>
@@ -3490,10 +3490,10 @@
         <v>31</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E121" s="6">
-        <v>45921</v>
+        <v>45923</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>12</v>
@@ -3513,10 +3513,10 @@
         <v>31</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E122" s="3">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>12</v>
@@ -3535,11 +3535,11 @@
       <c r="C123" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>15</v>
+      <c r="D123" s="5">
+        <v>5</v>
       </c>
       <c r="E123" s="6">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="F123" s="14" t="s">
         <v>12</v>
@@ -3559,10 +3559,10 @@
         <v>31</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E124" s="3">
-        <v>45924</v>
+        <v>45928</v>
       </c>
       <c r="F124" s="13" t="s">
         <v>12</v>
@@ -3581,11 +3581,11 @@
       <c r="C125" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D125" s="5">
-        <v>5</v>
+      <c r="D125" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E125" s="6">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="F125" s="14" t="s">
         <v>12</v>
@@ -3605,10 +3605,10 @@
         <v>31</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E126" s="3">
-        <v>45928</v>
+        <v>45930</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>12</v>
@@ -3628,10 +3628,10 @@
         <v>31</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E127" s="6">
-        <v>45929</v>
+        <v>27</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="F127" s="14" t="s">
         <v>12</v>
@@ -3651,10 +3651,10 @@
         <v>31</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" s="3">
-        <v>45930</v>
+        <v>29</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F128" s="13" t="s">
         <v>12</v>
@@ -3671,19 +3671,19 @@
         <v>81</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G129" s="7">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -3694,19 +3694,19 @@
         <v>81</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G130" s="4">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -3720,10 +3720,10 @@
         <v>42</v>
       </c>
       <c r="D131" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F131" s="14" t="s">
         <v>44</v>
@@ -3743,10 +3743,10 @@
         <v>42</v>
       </c>
       <c r="D132" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F132" s="13" t="s">
         <v>44</v>
@@ -3766,10 +3766,10 @@
         <v>42</v>
       </c>
       <c r="D133" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F133" s="14" t="s">
         <v>44</v>
@@ -3786,19 +3786,19 @@
         <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D134" s="2">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G134" s="4">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -3809,19 +3809,19 @@
         <v>81</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D135" s="5">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G135" s="7">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -3835,10 +3835,10 @@
         <v>49</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F136" s="13" t="s">
         <v>12</v>
@@ -3858,10 +3858,10 @@
         <v>49</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F137" s="14" t="s">
         <v>12</v>
@@ -3878,19 +3878,19 @@
         <v>81</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G138" s="4">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -3901,19 +3901,19 @@
         <v>81</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G139" s="7">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -3927,10 +3927,10 @@
         <v>55</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F140" s="13" t="s">
         <v>57</v>
@@ -3950,10 +3950,10 @@
         <v>55</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F141" s="14" t="s">
         <v>57</v>
@@ -3973,10 +3973,10 @@
         <v>55</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F142" s="13" t="s">
         <v>57</v>
@@ -3996,10 +3996,10 @@
         <v>55</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F143" s="14" t="s">
         <v>57</v>
@@ -4019,10 +4019,10 @@
         <v>55</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F144" s="13" t="s">
         <v>57</v>
@@ -4042,10 +4042,10 @@
         <v>55</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F145" s="14" t="s">
         <v>57</v>
@@ -4065,10 +4065,10 @@
         <v>55</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F146" s="13" t="s">
         <v>57</v>
@@ -4088,10 +4088,10 @@
         <v>55</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F147" s="14" t="s">
         <v>57</v>
@@ -4101,49 +4101,49 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" s="2" t="s">
+      <c r="A148" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F148" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G148" s="4">
-        <v>240</v>
+      <c r="C148" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="8">
+        <v>45950</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="7">
+        <v>360</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="5" t="s">
+      <c r="A149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F149" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G149" s="7">
-        <v>240</v>
+      <c r="C149" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="9">
+        <v>45951</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="4">
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -4156,11 +4156,11 @@
       <c r="C150" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D150" s="5">
-        <v>1</v>
+      <c r="D150" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E150" s="8">
-        <v>45949</v>
+        <v>45952</v>
       </c>
       <c r="F150" s="14" t="s">
         <v>12</v>
@@ -4180,10 +4180,10 @@
         <v>62</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E151" s="8">
-        <v>45950</v>
+        <v>45956</v>
       </c>
       <c r="F151" s="14" t="s">
         <v>12</v>
@@ -4193,48 +4193,48 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" s="2" t="s">
+      <c r="A152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" s="9">
-        <v>45951</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="4">
+      <c r="D152" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="8">
+        <v>45958</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="7">
         <v>360</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" s="5" t="s">
+      <c r="A153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="8">
-        <v>45952</v>
-      </c>
-      <c r="F153" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" s="7">
+      <c r="D153" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" s="9">
+        <v>45959</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="4">
         <v>360</v>
       </c>
     </row>
@@ -4249,475 +4249,475 @@
         <v>62</v>
       </c>
       <c r="D154" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="8">
+        <v>45960</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E154" s="8">
-        <v>45956</v>
-      </c>
-      <c r="F154" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D155" s="5" t="s">
+      <c r="E165" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E155" s="8">
-        <v>45958</v>
-      </c>
-      <c r="F155" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E167" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E156" s="9">
-        <v>45959</v>
-      </c>
-      <c r="F156" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D157" s="5" t="s">
+      <c r="E168" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E157" s="8">
-        <v>45960</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D158" s="2">
-        <v>1</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D159" s="5" t="s">
+      <c r="E169" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E171" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F160" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D161" s="5" t="s">
+      <c r="E172" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E161" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F161" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163" s="5" t="s">
+      <c r="E173" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F163" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F164" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F165" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F166" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F169" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F170" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F172" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" s="5" t="s">
+      <c r="C174" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" s="4">
+      <c r="D174" s="5">
+        <v>5</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="7">
         <v>360</v>
       </c>
     </row>
@@ -4732,10 +4732,10 @@
         <v>31</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F175" s="14" t="s">
         <v>12</v>
@@ -4755,10 +4755,10 @@
         <v>31</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F176" s="13" t="s">
         <v>12</v>
@@ -4777,11 +4777,11 @@
       <c r="C177" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D177" s="5">
-        <v>5</v>
+      <c r="D177" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F177" s="14" t="s">
         <v>12</v>
@@ -4801,10 +4801,10 @@
         <v>31</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F178" s="13" t="s">
         <v>12</v>
@@ -4821,19 +4821,19 @@
         <v>84</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="D179" s="5">
+        <v>1</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G179" s="7">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -4844,19 +4844,19 @@
         <v>84</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G180" s="4">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -4867,19 +4867,19 @@
         <v>84</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="D181" s="5">
+        <v>3</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G181" s="7">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -4890,19 +4890,19 @@
         <v>84</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="D182" s="2">
+        <v>4</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G182" s="4">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -4916,10 +4916,10 @@
         <v>42</v>
       </c>
       <c r="D183" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F183" s="14" t="s">
         <v>44</v>
@@ -4936,19 +4936,19 @@
         <v>84</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D184" s="2">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G184" s="4">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -4959,19 +4959,19 @@
         <v>84</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D185" s="5">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F185" s="14" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G185" s="7">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -4982,19 +4982,19 @@
         <v>84</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D186" s="2">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G186" s="4">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -5005,19 +5005,19 @@
         <v>84</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D187" s="5">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G187" s="7">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -5031,10 +5031,10 @@
         <v>49</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F188" s="13" t="s">
         <v>12</v>
@@ -5051,19 +5051,19 @@
         <v>84</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G189" s="7">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -5074,19 +5074,19 @@
         <v>84</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G190" s="4">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -5097,19 +5097,19 @@
         <v>84</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G191" s="7">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -5120,19 +5120,19 @@
         <v>84</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G192" s="4">
-        <v>360</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
@@ -5146,10 +5146,10 @@
         <v>55</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F193" s="14" t="s">
         <v>57</v>
@@ -5169,10 +5169,10 @@
         <v>55</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F194" s="13" t="s">
         <v>57</v>
@@ -5192,10 +5192,10 @@
         <v>55</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F195" s="14" t="s">
         <v>57</v>
@@ -5215,10 +5215,10 @@
         <v>55</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F196" s="13" t="s">
         <v>57</v>
@@ -5238,10 +5238,10 @@
         <v>55</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F197" s="14" t="s">
         <v>57</v>
@@ -5261,10 +5261,10 @@
         <v>55</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F198" s="13" t="s">
         <v>57</v>
@@ -5274,95 +5274,95 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199" s="5" t="s">
+      <c r="A199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F199" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G199" s="7">
-        <v>240</v>
+      <c r="C199" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="4">
+        <v>360</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" s="2" t="s">
+      <c r="A200" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G200" s="4">
-        <v>240</v>
+      <c r="C200" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="7">
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B201" s="5" t="s">
+      <c r="A201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F201" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G201" s="7">
-        <v>240</v>
+      <c r="C201" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F201" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" s="4">
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B202" s="2" t="s">
+      <c r="A202" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F202" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G202" s="4">
-        <v>240</v>
+      <c r="C202" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="7">
+        <v>360</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -5375,1097 +5375,1097 @@
       <c r="C203" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F203" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F205" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D207" s="2">
         <v>1</v>
       </c>
-      <c r="E203" s="3">
-        <v>45935</v>
-      </c>
-      <c r="F203" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B204" s="2" t="s">
+      <c r="E207" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F207" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="C208" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E208" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F211" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F213" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F215" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F217" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G217" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G218" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G219" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G220" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G222" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F224" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F225" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F227" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F228" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F229" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G229" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F230" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G230" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F231" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D232" s="5">
+        <v>1</v>
+      </c>
+      <c r="E232" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F204" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="F232" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G232" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D233" s="2">
+        <v>2</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F233" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G233" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D234" s="5">
+        <v>3</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G234" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D235" s="2">
+        <v>4</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F235" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G235" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D236" s="5">
+        <v>5</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G236" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F237" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G237" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G238" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E239" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G239" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F240" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F241" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G241" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G242" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G243" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F205" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D206" s="2" t="s">
+      <c r="F244" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G244" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E245" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F206" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="F245" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G245" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D246" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E246" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F207" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="F246" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G246" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="E247" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F208" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D209" s="5" t="s">
+      <c r="F247" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G247" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D248" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E248" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F209" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="F248" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G248" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E249" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F210" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D211" s="5" t="s">
+      <c r="F249" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G249" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D250" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="E250" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F211" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A212" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D212" s="2">
-        <v>1</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F212" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A213" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F213" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F214" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A215" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F215" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A216" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F216" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F217" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F218" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G218" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E219" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F219" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G219" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A220" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F220" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G220" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F221" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G221" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A222" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F222" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G222" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F223" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F224" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G224" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F225" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F226" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A227" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F227" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A228" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F228" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G228" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A229" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F229" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G229" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F230" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G230" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F231" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G231" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F232" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G232" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A233" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F233" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G233" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F234" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G234" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F235" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G235" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F236" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G236" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A237" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D237" s="5">
-        <v>1</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F237" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G237" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D238" s="2">
-        <v>2</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F238" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G238" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D239" s="5">
-        <v>3</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F239" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G239" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D240" s="2">
-        <v>4</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F240" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G240" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D241" s="5">
-        <v>5</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F241" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G241" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F242" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G242" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F243" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G243" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F244" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G244" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F245" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G245" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F246" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G246" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F247" s="14" t="s">
+      <c r="F250" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G247" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F248" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G248" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F249" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G249" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A250" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F250" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G250" s="4">
+      <c r="G250" s="7">
         <v>240</v>
       </c>
     </row>
@@ -6477,19 +6477,19 @@
         <v>87</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G251" s="7">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -6500,19 +6500,19 @@
         <v>87</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F252" s="13" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G252" s="4">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -6523,19 +6523,19 @@
         <v>87</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G253" s="7">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -6546,19 +6546,19 @@
         <v>87</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F254" s="13" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G254" s="4">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -6569,41 +6569,41 @@
         <v>87</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G255" s="7">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A256" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B256" s="5" t="s">
+      <c r="A256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C256" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D256" s="5">
-        <v>1</v>
-      </c>
-      <c r="E256" s="6">
-        <v>45921</v>
-      </c>
-      <c r="F256" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G256" s="7">
+      <c r="D256" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F256" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G256" s="4">
         <v>360</v>
       </c>
     </row>
@@ -6618,10 +6618,10 @@
         <v>62</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F257" s="14" t="s">
         <v>12</v>
@@ -6641,10 +6641,10 @@
         <v>62</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F258" s="13" t="s">
         <v>12</v>
@@ -6664,10 +6664,10 @@
         <v>62</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F259" s="14" t="s">
         <v>12</v>
@@ -6684,13 +6684,13 @@
         <v>87</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>19</v>
+        <v>73</v>
+      </c>
+      <c r="D260" s="2">
+        <v>1</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F260" s="13" t="s">
         <v>12</v>
@@ -6707,13 +6707,13 @@
         <v>87</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F261" s="14" t="s">
         <v>12</v>
@@ -6730,13 +6730,13 @@
         <v>87</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F262" s="13" t="s">
         <v>12</v>
@@ -6753,13 +6753,13 @@
         <v>87</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F263" s="14" t="s">
         <v>12</v>
@@ -6776,156 +6776,18 @@
         <v>87</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F264" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G264" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F265" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G265" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D266" s="2">
-        <v>1</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F266" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G266" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E267" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F267" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G267" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F268" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G268" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A269" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E269" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F269" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G269" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A270" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F270" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G270" s="4">
         <v>360</v>
       </c>
     </row>

--- a/modules_schedules/Y4_B2526_General_&_special_internal_1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_special_internal_1_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sayed\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0108AE3-6DCD-4260-B97F-8428BB3FD1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A7F57-12A7-49B9-8C93-7BC6243E94BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_&amp;_special_internal_1" sheetId="1" r:id="rId1"/>
@@ -705,11 +705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="147" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255:XFD256"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
@@ -719,7 +719,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -762,10 +762,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -785,10 +785,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -808,10 +808,10 @@
         <v>12</v>
       </c>
       <c r="G4" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -831,10 +831,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -854,10 +854,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -877,10 +877,10 @@
         <v>12</v>
       </c>
       <c r="G7" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -900,10 +900,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -923,10 +923,10 @@
         <v>12</v>
       </c>
       <c r="G9" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -946,10 +946,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -969,10 +969,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -992,10 +992,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -1015,10 +1015,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1038,10 +1038,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1061,10 +1061,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1084,10 +1084,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
@@ -1107,10 +1107,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1130,10 +1130,10 @@
         <v>12</v>
       </c>
       <c r="G18" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -1153,10 +1153,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1176,10 +1176,10 @@
         <v>12</v>
       </c>
       <c r="G20" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -1199,10 +1199,10 @@
         <v>12</v>
       </c>
       <c r="G21" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1222,10 +1222,10 @@
         <v>44</v>
       </c>
       <c r="G22" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1245,10 +1245,10 @@
         <v>44</v>
       </c>
       <c r="G23" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1268,10 +1268,10 @@
         <v>44</v>
       </c>
       <c r="G24" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
@@ -1291,10 +1291,10 @@
         <v>44</v>
       </c>
       <c r="G25" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1314,10 +1314,10 @@
         <v>44</v>
       </c>
       <c r="G26" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
@@ -1337,10 +1337,10 @@
         <v>12</v>
       </c>
       <c r="G27" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1360,10 +1360,10 @@
         <v>12</v>
       </c>
       <c r="G28" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
@@ -1383,10 +1383,10 @@
         <v>12</v>
       </c>
       <c r="G29" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1406,10 +1406,10 @@
         <v>12</v>
       </c>
       <c r="G30" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1429,10 +1429,10 @@
         <v>12</v>
       </c>
       <c r="G31" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1452,10 +1452,10 @@
         <v>57</v>
       </c>
       <c r="G32" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -1475,10 +1475,10 @@
         <v>57</v>
       </c>
       <c r="G33" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1498,10 +1498,10 @@
         <v>57</v>
       </c>
       <c r="G34" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -1521,10 +1521,10 @@
         <v>57</v>
       </c>
       <c r="G35" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1544,10 +1544,10 @@
         <v>57</v>
       </c>
       <c r="G36" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1567,10 +1567,10 @@
         <v>57</v>
       </c>
       <c r="G37" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1590,10 +1590,10 @@
         <v>57</v>
       </c>
       <c r="G38" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
@@ -1613,10 +1613,10 @@
         <v>57</v>
       </c>
       <c r="G39" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1636,10 +1636,10 @@
         <v>57</v>
       </c>
       <c r="G40" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
@@ -1659,10 +1659,10 @@
         <v>57</v>
       </c>
       <c r="G41" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
@@ -1681,11 +1681,11 @@
       <c r="F42" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G42" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1704,11 +1704,11 @@
       <c r="F43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G43" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
@@ -1727,11 +1727,11 @@
       <c r="F44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G44" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1750,11 +1750,11 @@
       <c r="F45" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G45" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
@@ -1773,11 +1773,11 @@
       <c r="F46" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G46" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -1796,11 +1796,11 @@
       <c r="F47" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G47" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
@@ -1819,11 +1819,11 @@
       <c r="F48" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G48" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -1842,11 +1842,11 @@
       <c r="F49" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>7</v>
       </c>
@@ -1865,11 +1865,11 @@
       <c r="F50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G50" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1888,11 +1888,11 @@
       <c r="F51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G51" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -1911,11 +1911,11 @@
       <c r="F52" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G52" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -1934,11 +1934,11 @@
       <c r="F53" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G53" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
@@ -1957,11 +1957,11 @@
       <c r="F54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G54" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -1980,11 +1980,11 @@
       <c r="F55" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G55" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>7</v>
       </c>
@@ -2003,11 +2003,11 @@
       <c r="F56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G56" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -2026,11 +2026,11 @@
       <c r="F57" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G57" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
@@ -2049,11 +2049,11 @@
       <c r="F58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G58" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -2072,11 +2072,11 @@
       <c r="F59" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G59" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>7</v>
       </c>
@@ -2095,11 +2095,11 @@
       <c r="F60" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G60" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -2118,11 +2118,11 @@
       <c r="F61" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G61" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -2141,11 +2141,11 @@
       <c r="F62" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G62" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
@@ -2164,11 +2164,11 @@
       <c r="F63" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G63" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>7</v>
       </c>
@@ -2187,11 +2187,11 @@
       <c r="F64" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G64" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2210,11 +2210,11 @@
       <c r="F65" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G65" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>7</v>
       </c>
@@ -2233,11 +2233,11 @@
       <c r="F66" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G66" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2256,11 +2256,11 @@
       <c r="F67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G67" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>7</v>
       </c>
@@ -2279,11 +2279,11 @@
       <c r="F68" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G68" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
@@ -2302,11 +2302,11 @@
       <c r="F69" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G69" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
@@ -2325,11 +2325,11 @@
       <c r="F70" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G70" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
@@ -2348,11 +2348,11 @@
       <c r="F71" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G71" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
@@ -2371,11 +2371,11 @@
       <c r="F72" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G72" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -2394,11 +2394,11 @@
       <c r="F73" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G73" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
@@ -2417,11 +2417,11 @@
       <c r="F74" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G74" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -2440,11 +2440,11 @@
       <c r="F75" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G75" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G75" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>7</v>
       </c>
@@ -2463,11 +2463,11 @@
       <c r="F76" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G76" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G76" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
@@ -2486,11 +2486,11 @@
       <c r="F77" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G77" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G77" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>7</v>
       </c>
@@ -2509,11 +2509,11 @@
       <c r="F78" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G78" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G78" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -2532,11 +2532,11 @@
       <c r="F79" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G79" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G79" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
@@ -2555,11 +2555,11 @@
       <c r="F80" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G80" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
@@ -2578,11 +2578,11 @@
       <c r="F81" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G81" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
@@ -2601,11 +2601,11 @@
       <c r="F82" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G82" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -2624,11 +2624,11 @@
       <c r="F83" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G83" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>7</v>
       </c>
@@ -2647,11 +2647,11 @@
       <c r="F84" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G84" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -2670,11 +2670,11 @@
       <c r="F85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G85" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G85" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>7</v>
       </c>
@@ -2693,11 +2693,11 @@
       <c r="F86" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G86" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G86" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>7</v>
       </c>
@@ -2716,11 +2716,11 @@
       <c r="F87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G87" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G87" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>7</v>
       </c>
@@ -2739,11 +2739,11 @@
       <c r="F88" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G88" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G88" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -2762,11 +2762,11 @@
       <c r="F89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G89" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G89" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>7</v>
       </c>
@@ -2785,11 +2785,11 @@
       <c r="F90" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G90" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G90" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -2808,11 +2808,11 @@
       <c r="F91" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G91" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G91" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>7</v>
       </c>
@@ -2831,11 +2831,11 @@
       <c r="F92" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G92" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G92" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
@@ -2854,11 +2854,11 @@
       <c r="F93" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G93" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G93" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>7</v>
       </c>
@@ -2877,11 +2877,11 @@
       <c r="F94" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G94" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G94" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>7</v>
       </c>
@@ -2901,10 +2901,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -2924,10 +2924,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>7</v>
       </c>
@@ -2947,10 +2947,10 @@
         <v>12</v>
       </c>
       <c r="G97" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
@@ -2970,10 +2970,10 @@
         <v>12</v>
       </c>
       <c r="G98" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>7</v>
       </c>
@@ -2993,10 +2993,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
@@ -3016,10 +3016,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>7</v>
       </c>
@@ -3039,10 +3039,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
@@ -3062,10 +3062,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>7</v>
       </c>
@@ -3085,10 +3085,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
@@ -3108,10 +3108,10 @@
         <v>12</v>
       </c>
       <c r="G104" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>7</v>
       </c>
@@ -3131,10 +3131,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -3154,10 +3154,10 @@
         <v>12</v>
       </c>
       <c r="G106" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>7</v>
       </c>
@@ -3177,10 +3177,10 @@
         <v>12</v>
       </c>
       <c r="G107" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
@@ -3200,10 +3200,10 @@
         <v>12</v>
       </c>
       <c r="G108" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>7</v>
       </c>
@@ -3223,10 +3223,10 @@
         <v>12</v>
       </c>
       <c r="G109" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
@@ -3246,10 +3246,10 @@
         <v>12</v>
       </c>
       <c r="G110" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>7</v>
       </c>
@@ -3269,10 +3269,10 @@
         <v>12</v>
       </c>
       <c r="G111" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
@@ -3292,10 +3292,10 @@
         <v>12</v>
       </c>
       <c r="G112" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>7</v>
       </c>
@@ -3315,10 +3315,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
@@ -3338,10 +3338,10 @@
         <v>12</v>
       </c>
       <c r="G114" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>7</v>
       </c>
@@ -3361,10 +3361,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -3384,10 +3384,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>7</v>
       </c>
@@ -3407,10 +3407,10 @@
         <v>12</v>
       </c>
       <c r="G117" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -3430,10 +3430,10 @@
         <v>12</v>
       </c>
       <c r="G118" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>7</v>
       </c>
@@ -3453,10 +3453,10 @@
         <v>12</v>
       </c>
       <c r="G119" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>7</v>
       </c>
@@ -3476,10 +3476,10 @@
         <v>12</v>
       </c>
       <c r="G120" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>7</v>
       </c>
@@ -3499,10 +3499,10 @@
         <v>12</v>
       </c>
       <c r="G121" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -3522,10 +3522,10 @@
         <v>12</v>
       </c>
       <c r="G122" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>7</v>
       </c>
@@ -3545,10 +3545,10 @@
         <v>12</v>
       </c>
       <c r="G123" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
@@ -3568,10 +3568,10 @@
         <v>12</v>
       </c>
       <c r="G124" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>7</v>
       </c>
@@ -3591,10 +3591,10 @@
         <v>12</v>
       </c>
       <c r="G125" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>7</v>
       </c>
@@ -3614,10 +3614,10 @@
         <v>12</v>
       </c>
       <c r="G126" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>7</v>
       </c>
@@ -3637,10 +3637,10 @@
         <v>12</v>
       </c>
       <c r="G127" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
@@ -3660,10 +3660,10 @@
         <v>12</v>
       </c>
       <c r="G128" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>7</v>
       </c>
@@ -3683,10 +3683,10 @@
         <v>44</v>
       </c>
       <c r="G129" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>7</v>
       </c>
@@ -3706,10 +3706,10 @@
         <v>44</v>
       </c>
       <c r="G130" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>7</v>
       </c>
@@ -3729,10 +3729,10 @@
         <v>44</v>
       </c>
       <c r="G131" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
@@ -3752,10 +3752,10 @@
         <v>44</v>
       </c>
       <c r="G132" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>7</v>
       </c>
@@ -3775,10 +3775,10 @@
         <v>44</v>
       </c>
       <c r="G133" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>7</v>
       </c>
@@ -3798,10 +3798,10 @@
         <v>12</v>
       </c>
       <c r="G134" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>7</v>
       </c>
@@ -3821,10 +3821,10 @@
         <v>12</v>
       </c>
       <c r="G135" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>7</v>
       </c>
@@ -3844,10 +3844,10 @@
         <v>12</v>
       </c>
       <c r="G136" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>7</v>
       </c>
@@ -3867,10 +3867,10 @@
         <v>12</v>
       </c>
       <c r="G137" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>7</v>
       </c>
@@ -3890,10 +3890,10 @@
         <v>57</v>
       </c>
       <c r="G138" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>7</v>
       </c>
@@ -3913,10 +3913,10 @@
         <v>57</v>
       </c>
       <c r="G139" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>7</v>
       </c>
@@ -3936,10 +3936,10 @@
         <v>57</v>
       </c>
       <c r="G140" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>7</v>
       </c>
@@ -3959,10 +3959,10 @@
         <v>57</v>
       </c>
       <c r="G141" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>7</v>
       </c>
@@ -3982,10 +3982,10 @@
         <v>57</v>
       </c>
       <c r="G142" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>7</v>
       </c>
@@ -4005,10 +4005,10 @@
         <v>57</v>
       </c>
       <c r="G143" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>7</v>
       </c>
@@ -4028,10 +4028,10 @@
         <v>57</v>
       </c>
       <c r="G144" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>7</v>
       </c>
@@ -4051,10 +4051,10 @@
         <v>57</v>
       </c>
       <c r="G145" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>7</v>
       </c>
@@ -4074,10 +4074,10 @@
         <v>57</v>
       </c>
       <c r="G146" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>7</v>
       </c>
@@ -4097,10 +4097,10 @@
         <v>57</v>
       </c>
       <c r="G147" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>7</v>
       </c>
@@ -4119,11 +4119,11 @@
       <c r="F148" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G148" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>7</v>
       </c>
@@ -4142,11 +4142,11 @@
       <c r="F149" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G149" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>7</v>
       </c>
@@ -4165,11 +4165,11 @@
       <c r="F150" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G150" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>7</v>
       </c>
@@ -4189,10 +4189,10 @@
         <v>12</v>
       </c>
       <c r="G151" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>7</v>
       </c>
@@ -4211,11 +4211,11 @@
       <c r="F152" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G152" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>7</v>
       </c>
@@ -4234,11 +4234,11 @@
       <c r="F153" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G153" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G153" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>7</v>
       </c>
@@ -4257,11 +4257,11 @@
       <c r="F154" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G154" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>7</v>
       </c>
@@ -4280,11 +4280,11 @@
       <c r="F155" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G155" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>7</v>
       </c>
@@ -4303,11 +4303,11 @@
       <c r="F156" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G156" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>7</v>
       </c>
@@ -4326,11 +4326,11 @@
       <c r="F157" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G157" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>7</v>
       </c>
@@ -4349,11 +4349,11 @@
       <c r="F158" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G158" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G158" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>7</v>
       </c>
@@ -4372,11 +4372,11 @@
       <c r="F159" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G159" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>7</v>
       </c>
@@ -4395,11 +4395,11 @@
       <c r="F160" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G160" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>7</v>
       </c>
@@ -4418,11 +4418,11 @@
       <c r="F161" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G161" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G161" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>7</v>
       </c>
@@ -4441,11 +4441,11 @@
       <c r="F162" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G162" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>7</v>
       </c>
@@ -4464,11 +4464,11 @@
       <c r="F163" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G163" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>7</v>
       </c>
@@ -4487,11 +4487,11 @@
       <c r="F164" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G164" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G164" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>7</v>
       </c>
@@ -4510,11 +4510,11 @@
       <c r="F165" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G165" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>7</v>
       </c>
@@ -4533,11 +4533,11 @@
       <c r="F166" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G166" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>7</v>
       </c>
@@ -4556,11 +4556,11 @@
       <c r="F167" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G167" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>7</v>
       </c>
@@ -4579,11 +4579,11 @@
       <c r="F168" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G168" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>7</v>
       </c>
@@ -4602,11 +4602,11 @@
       <c r="F169" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G169" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>7</v>
       </c>
@@ -4625,11 +4625,11 @@
       <c r="F170" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G170" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G170" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>7</v>
       </c>
@@ -4648,11 +4648,11 @@
       <c r="F171" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G171" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G171" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>7</v>
       </c>
@@ -4671,11 +4671,11 @@
       <c r="F172" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G172" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G172" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>7</v>
       </c>
@@ -4694,11 +4694,11 @@
       <c r="F173" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G173" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G173" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>7</v>
       </c>
@@ -4717,11 +4717,11 @@
       <c r="F174" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G174" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G174" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>7</v>
       </c>
@@ -4741,10 +4741,10 @@
         <v>12</v>
       </c>
       <c r="G175" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>7</v>
       </c>
@@ -4764,10 +4764,10 @@
         <v>12</v>
       </c>
       <c r="G176" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>7</v>
       </c>
@@ -4787,10 +4787,10 @@
         <v>12</v>
       </c>
       <c r="G177" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>7</v>
       </c>
@@ -4810,10 +4810,10 @@
         <v>12</v>
       </c>
       <c r="G178" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>7</v>
       </c>
@@ -4833,10 +4833,10 @@
         <v>44</v>
       </c>
       <c r="G179" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>7</v>
       </c>
@@ -4856,10 +4856,10 @@
         <v>44</v>
       </c>
       <c r="G180" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>7</v>
       </c>
@@ -4879,10 +4879,10 @@
         <v>44</v>
       </c>
       <c r="G181" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>7</v>
       </c>
@@ -4902,10 +4902,10 @@
         <v>44</v>
       </c>
       <c r="G182" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>7</v>
       </c>
@@ -4925,10 +4925,10 @@
         <v>44</v>
       </c>
       <c r="G183" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>7</v>
       </c>
@@ -4948,10 +4948,10 @@
         <v>12</v>
       </c>
       <c r="G184" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>7</v>
       </c>
@@ -4971,10 +4971,10 @@
         <v>12</v>
       </c>
       <c r="G185" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>7</v>
       </c>
@@ -4994,10 +4994,10 @@
         <v>12</v>
       </c>
       <c r="G186" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>7</v>
       </c>
@@ -5017,10 +5017,10 @@
         <v>12</v>
       </c>
       <c r="G187" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>7</v>
       </c>
@@ -5040,10 +5040,10 @@
         <v>12</v>
       </c>
       <c r="G188" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>7</v>
       </c>
@@ -5063,10 +5063,10 @@
         <v>57</v>
       </c>
       <c r="G189" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>7</v>
       </c>
@@ -5086,10 +5086,10 @@
         <v>57</v>
       </c>
       <c r="G190" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>7</v>
       </c>
@@ -5109,10 +5109,10 @@
         <v>57</v>
       </c>
       <c r="G191" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>7</v>
       </c>
@@ -5132,10 +5132,10 @@
         <v>57</v>
       </c>
       <c r="G192" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>7</v>
       </c>
@@ -5155,10 +5155,10 @@
         <v>57</v>
       </c>
       <c r="G193" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>7</v>
       </c>
@@ -5178,10 +5178,10 @@
         <v>57</v>
       </c>
       <c r="G194" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>7</v>
       </c>
@@ -5201,10 +5201,10 @@
         <v>57</v>
       </c>
       <c r="G195" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>7</v>
       </c>
@@ -5224,10 +5224,10 @@
         <v>57</v>
       </c>
       <c r="G196" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>7</v>
       </c>
@@ -5247,10 +5247,10 @@
         <v>57</v>
       </c>
       <c r="G197" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>7</v>
       </c>
@@ -5270,10 +5270,10 @@
         <v>57</v>
       </c>
       <c r="G198" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>7</v>
       </c>
@@ -5292,11 +5292,11 @@
       <c r="F199" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G199" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G199" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>7</v>
       </c>
@@ -5315,11 +5315,11 @@
       <c r="F200" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G200" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G200" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>7</v>
       </c>
@@ -5338,11 +5338,11 @@
       <c r="F201" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G201" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G201" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>7</v>
       </c>
@@ -5361,11 +5361,11 @@
       <c r="F202" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G202" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G202" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>7</v>
       </c>
@@ -5384,11 +5384,11 @@
       <c r="F203" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G203" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G203" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>7</v>
       </c>
@@ -5407,11 +5407,11 @@
       <c r="F204" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G204" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G204" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>7</v>
       </c>
@@ -5430,11 +5430,11 @@
       <c r="F205" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G205" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G205" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>7</v>
       </c>
@@ -5453,11 +5453,11 @@
       <c r="F206" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G206" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G206" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>7</v>
       </c>
@@ -5476,11 +5476,11 @@
       <c r="F207" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G207" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G207" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>7</v>
       </c>
@@ -5499,11 +5499,11 @@
       <c r="F208" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G208" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G208" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>7</v>
       </c>
@@ -5522,11 +5522,11 @@
       <c r="F209" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G209" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G209" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>7</v>
       </c>
@@ -5545,11 +5545,11 @@
       <c r="F210" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G210" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G210" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
@@ -5568,11 +5568,11 @@
       <c r="F211" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G211" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G211" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>7</v>
       </c>
@@ -5591,11 +5591,11 @@
       <c r="F212" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G212" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G212" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>7</v>
       </c>
@@ -5614,11 +5614,11 @@
       <c r="F213" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G213" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G213" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>7</v>
       </c>
@@ -5637,11 +5637,11 @@
       <c r="F214" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G214" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G214" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>7</v>
       </c>
@@ -5660,11 +5660,11 @@
       <c r="F215" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G215" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G215" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>7</v>
       </c>
@@ -5683,11 +5683,11 @@
       <c r="F216" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G216" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G216" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>7</v>
       </c>
@@ -5706,11 +5706,11 @@
       <c r="F217" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G217" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G217" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>7</v>
       </c>
@@ -5729,11 +5729,11 @@
       <c r="F218" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G218" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G218" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>7</v>
       </c>
@@ -5752,11 +5752,11 @@
       <c r="F219" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G219" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G219" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>7</v>
       </c>
@@ -5775,11 +5775,11 @@
       <c r="F220" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G220" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G220" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>7</v>
       </c>
@@ -5798,11 +5798,11 @@
       <c r="F221" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G221" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G221" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>7</v>
       </c>
@@ -5821,11 +5821,11 @@
       <c r="F222" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G222" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G222" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>7</v>
       </c>
@@ -5844,11 +5844,11 @@
       <c r="F223" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G223" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G223" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>7</v>
       </c>
@@ -5867,11 +5867,11 @@
       <c r="F224" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G224" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G224" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>7</v>
       </c>
@@ -5890,11 +5890,11 @@
       <c r="F225" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G225" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G225" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>7</v>
       </c>
@@ -5913,11 +5913,11 @@
       <c r="F226" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G226" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G226" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>7</v>
       </c>
@@ -5936,11 +5936,11 @@
       <c r="F227" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G227" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G227" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>7</v>
       </c>
@@ -5959,11 +5959,11 @@
       <c r="F228" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G228" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G228" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>7</v>
       </c>
@@ -5982,11 +5982,11 @@
       <c r="F229" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G229" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G229" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>7</v>
       </c>
@@ -6005,11 +6005,11 @@
       <c r="F230" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G230" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G230" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>7</v>
       </c>
@@ -6028,11 +6028,11 @@
       <c r="F231" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G231" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G231" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>7</v>
       </c>
@@ -6051,11 +6051,11 @@
       <c r="F232" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G232" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G232" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>7</v>
       </c>
@@ -6074,11 +6074,11 @@
       <c r="F233" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G233" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G233" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>7</v>
       </c>
@@ -6097,11 +6097,11 @@
       <c r="F234" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G234" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G234" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>7</v>
       </c>
@@ -6120,11 +6120,11 @@
       <c r="F235" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G235" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G235" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>7</v>
       </c>
@@ -6143,11 +6143,11 @@
       <c r="F236" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G236" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G236" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>7</v>
       </c>
@@ -6166,11 +6166,11 @@
       <c r="F237" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G237" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G237" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>7</v>
       </c>
@@ -6189,11 +6189,11 @@
       <c r="F238" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G238" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G238" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>7</v>
       </c>
@@ -6212,11 +6212,11 @@
       <c r="F239" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G239" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G239" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>7</v>
       </c>
@@ -6235,11 +6235,11 @@
       <c r="F240" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G240" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G240" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>7</v>
       </c>
@@ -6258,11 +6258,11 @@
       <c r="F241" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G241" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G241" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>7</v>
       </c>
@@ -6281,11 +6281,11 @@
       <c r="F242" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G242" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G242" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>7</v>
       </c>
@@ -6304,11 +6304,11 @@
       <c r="F243" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G243" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G243" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>7</v>
       </c>
@@ -6327,11 +6327,11 @@
       <c r="F244" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G244" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G244" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>7</v>
       </c>
@@ -6350,11 +6350,11 @@
       <c r="F245" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G245" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G245" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>7</v>
       </c>
@@ -6373,11 +6373,11 @@
       <c r="F246" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G246" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G246" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>7</v>
       </c>
@@ -6396,11 +6396,11 @@
       <c r="F247" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G247" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G247" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>7</v>
       </c>
@@ -6419,11 +6419,11 @@
       <c r="F248" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G248" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G248" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>7</v>
       </c>
@@ -6442,11 +6442,11 @@
       <c r="F249" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G249" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G249" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>7</v>
       </c>
@@ -6465,11 +6465,11 @@
       <c r="F250" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G250" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G250" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>7</v>
       </c>
@@ -6489,10 +6489,10 @@
         <v>12</v>
       </c>
       <c r="G251" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>7</v>
       </c>
@@ -6512,10 +6512,10 @@
         <v>12</v>
       </c>
       <c r="G252" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>7</v>
       </c>
@@ -6535,10 +6535,10 @@
         <v>12</v>
       </c>
       <c r="G253" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>7</v>
       </c>
@@ -6558,10 +6558,10 @@
         <v>12</v>
       </c>
       <c r="G254" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>7</v>
       </c>
@@ -6581,10 +6581,10 @@
         <v>12</v>
       </c>
       <c r="G255" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>7</v>
       </c>
@@ -6604,10 +6604,10 @@
         <v>12</v>
       </c>
       <c r="G256" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>7</v>
       </c>
@@ -6627,10 +6627,10 @@
         <v>12</v>
       </c>
       <c r="G257" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>7</v>
       </c>
@@ -6650,10 +6650,10 @@
         <v>12</v>
       </c>
       <c r="G258" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>7</v>
       </c>
@@ -6673,10 +6673,10 @@
         <v>12</v>
       </c>
       <c r="G259" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>7</v>
       </c>
@@ -6696,10 +6696,10 @@
         <v>12</v>
       </c>
       <c r="G260" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>7</v>
       </c>
@@ -6719,10 +6719,10 @@
         <v>12</v>
       </c>
       <c r="G261" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>7</v>
       </c>
@@ -6742,10 +6742,10 @@
         <v>12</v>
       </c>
       <c r="G262" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>7</v>
       </c>
@@ -6765,10 +6765,10 @@
         <v>12</v>
       </c>
       <c r="G263" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>7</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>12</v>
       </c>
       <c r="G264" s="4">
-        <v>360</v>
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
